--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47604.57057562919</v>
+        <v>-47474.68438643648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6058391.215842249</v>
+        <v>6368170.836497651</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564531.09171689</v>
+        <v>22524657.89747274</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4232594.998919064</v>
+        <v>4234348.67928453</v>
       </c>
     </row>
     <row r="11">
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0135169984386</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -25877,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>84.04458539159593</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>69.55120651446384</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>64.12462538166871</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J46" t="n">
-        <v>88.83884492777894</v>
+        <v>59.65462775411975</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.76069987584818</v>
+        <v>45.19520876274868</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366042.5496417873</v>
+        <v>369079.3566272869</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>42439.71590049706</v>
       </c>
       <c r="P2" t="n">
-        <v>42439.71590049706</v>
+        <v>45629.57144002968</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152357.359689353</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="P4" t="n">
-        <v>37134.75141293493</v>
+        <v>15450.17796705678</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4990.249710368006</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28322.63551243787</v>
+        <v>-28322.63551243786</v>
       </c>
       <c r="C6" t="n">
-        <v>-28322.63551243787</v>
+        <v>-28322.63551243786</v>
       </c>
       <c r="D6" t="n">
-        <v>-28322.63551243787</v>
+        <v>-28322.63551243786</v>
       </c>
       <c r="E6" t="n">
         <v>5304.964487562131</v>
@@ -26561,7 +26563,7 @@
         <v>5304.964487562131</v>
       </c>
       <c r="P6" t="n">
-        <v>5304.964487562131</v>
+        <v>-127168.2159267481</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47474.68438643648</v>
+        <v>-173464.8234134842</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6368170.836497651</v>
+        <v>6058391.215842249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22524657.89747274</v>
+        <v>22564531.09171689</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4234348.67928453</v>
+        <v>4232594.998919064</v>
       </c>
     </row>
     <row r="11">
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.41525156930325</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>97.52919776222207</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L44" t="n">
-        <v>84.65094969160234</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M44" t="n">
-        <v>63.00089454090767</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N44" t="n">
-        <v>59.47641268871214</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>69.29510178405982</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>93.12002459555268</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.3721168894014</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>77.14817768641285</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>54.88786293308858</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>28.18282082555037</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>13.82444031476771</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>21.88313163507588</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>36.60328338528051</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.63117054633832</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>77.82929286268265</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>70.14201962134344</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M46" t="n">
-        <v>70.74600996413862</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N46" t="n">
-        <v>61.32535548916809</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O46" t="n">
-        <v>76.6492064337699</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P46" t="n">
-        <v>84.35979105369728</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -25879,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.934522038312</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>328.7194610210322</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>169.7466255189538</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.04458539159593</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>184.8949060317757</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>218.936751863861</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4041441073029</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5308365967838</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7072230423724</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>69.55120651446384</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.12462538166871</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>159.8159900855784</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>196.3979207416475</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6247840666579</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4767994368456</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>157.9639981506375</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
-        <v>141.344840945473</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>59.65462775411975</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.19520876274868</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>154.8306309999973</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>215.1636118833841</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>226.5687290657497</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0297546005226</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369079.3566272869</v>
+        <v>366042.5496417873</v>
       </c>
     </row>
   </sheetData>
@@ -26343,7 +26343,7 @@
         <v>42439.71590049706</v>
       </c>
       <c r="L2" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="M2" t="n">
         <v>42439.71590049706</v>
@@ -26355,7 +26355,7 @@
         <v>42439.71590049706</v>
       </c>
       <c r="P2" t="n">
-        <v>45629.57144002968</v>
+        <v>42439.71590049706</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152357.359689353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="P4" t="n">
-        <v>15450.17796705678</v>
+        <v>37134.75141293493</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4990.249710368006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-43365.65624024915</v>
       </c>
       <c r="C6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-43365.65624024915</v>
       </c>
       <c r="D6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-43365.65624024915</v>
       </c>
       <c r="E6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="F6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="G6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="H6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="I6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="J6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="K6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="L6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249141</v>
       </c>
       <c r="M6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="N6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="O6" t="n">
-        <v>5304.964487562131</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="P6" t="n">
-        <v>-127168.2159267481</v>
+        <v>-9738.056240249149</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9202433655189716</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.42444236712117</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>35.47768234917019</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>78.10450534421588</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>117.058407006634</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>145.2213049041352</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>161.5866828556833</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>164.201324317964</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>155.0506543520847</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>132.3321462658351</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.3759307381869</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.80623730928114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.97004569176358</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.0283653325593</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0736194692415177</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4923736082585709</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.755292479760408</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.95233695100782</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.51850831358718</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>79.50754006691143</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>106.907699459827</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>124.7562427592001</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>117.1482066982574</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>94.02176384369149</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.85105918753266</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.57035437942251</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>9.145623820065993</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.984611166621169</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03239300054332704</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4127894932625061</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.670073858279375</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.41370585193064</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.18421717365919</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>47.95863385358934</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>61.37053975286388</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>64.70662938477629</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>63.16805036443428</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>58.3459185567768</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>49.92501289422163</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.5654911130995</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.56051666978504</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.1937950780384</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76373692575798</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02251579054159127</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
